--- a/data/trans_orig/Q23_tabaco-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>18.6408996410331</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>17.80913912396375</v>
+        <v>17.80913912396374</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>16.61082814908572</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.64493873070131</v>
+        <v>15.60219007646477</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.65500097873229</v>
+        <v>15.65656854050832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.73606151435077</v>
+        <v>15.716908772044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.22168208901536</v>
+        <v>15.26184027895821</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.91361345204194</v>
+        <v>17.89078905355628</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.74729399726095</v>
+        <v>17.80146828851519</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.75764677229846</v>
+        <v>17.74758608269755</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.26437594902063</v>
+        <v>17.23535943219834</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.33292129350097</v>
+        <v>16.34386928501009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.38073547908479</v>
+        <v>16.35709020199565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.47422884362187</v>
+        <v>16.42478770790014</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15.89668060849827</v>
+        <v>15.89440610760407</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.17027764580968</v>
+        <v>16.16400335044106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.28467971675237</v>
+        <v>16.24089205066706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.57817020603026</v>
+        <v>16.57258206265731</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.90859768881822</v>
+        <v>15.89673254343327</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.8864894284518</v>
+        <v>19.85844810768466</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.26194924748484</v>
+        <v>19.4677712072146</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.94475469351725</v>
+        <v>20.05330138330682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.61909758265721</v>
+        <v>18.47973383465883</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.00257435341949</v>
+        <v>16.984303535475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.99630554830118</v>
+        <v>16.95258903962476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.37258347283719</v>
+        <v>17.32384017912127</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.48944317225037</v>
+        <v>16.51070020155077</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.29172578032403</v>
+        <v>16.29019394828852</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.44795331307993</v>
+        <v>16.4452256853725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.32455878956901</v>
+        <v>16.31540123157672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.57697374942425</v>
+        <v>16.54395635608954</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.70466873004458</v>
+        <v>16.69202834576877</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.13868011082959</v>
+        <v>17.12844027068826</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.27419841571629</v>
+        <v>17.26977602585144</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.0773579730796</v>
+        <v>17.07125359483314</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.504649121278</v>
+        <v>16.51294181207165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.7999536598037</v>
+        <v>16.79234867153887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.80465659923856</v>
+        <v>16.78921744786423</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.86181538009765</v>
+        <v>16.8242018451649</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.7312862987404</v>
+        <v>16.6839285334404</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.79419457321008</v>
+        <v>16.78900744924287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.73856406721514</v>
+        <v>16.7211577085798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.00948734328585</v>
+        <v>17.01065017542322</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.22710879004876</v>
+        <v>17.18920656725861</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.81634092685529</v>
+        <v>17.79898874256324</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.88331528049313</v>
+        <v>17.87259966155978</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.56263581560195</v>
+        <v>17.55454812025684</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>16.81785340473953</v>
+        <v>16.83421953152221</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.1484548416733</v>
+        <v>17.15737321308429</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.16385005517447</v>
+        <v>17.15698474319021</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.17980947762835</v>
+        <v>17.16934755578527</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>17.25505540582449</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>18.12113256129782</v>
+        <v>18.12113256129783</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.56870040007265</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.90511773610906</v>
+        <v>16.88382753075546</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.12776723263509</v>
+        <v>17.10828008431148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.7073992097359</v>
+        <v>16.72591537815491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.48359352268571</v>
+        <v>17.51731342876774</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.50214695975241</v>
+        <v>17.54323240623958</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.33004927120847</v>
+        <v>17.31665191727589</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.85894311332294</v>
+        <v>16.85549811334612</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.678746285741</v>
+        <v>17.67670094238616</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.25580573860305</v>
+        <v>17.26011316351167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.33153331728116</v>
+        <v>17.33613912734705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.90892815060383</v>
+        <v>16.86724311382572</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.69820116245436</v>
+        <v>17.70347828192078</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.67774286630331</v>
+        <v>17.68735403335339</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.15896719948625</v>
+        <v>18.10535821504664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.64853987343168</v>
+        <v>17.63093738992881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.45450292592543</v>
+        <v>18.35407396908306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.96444192534912</v>
+        <v>19.03076044039448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.54628477979315</v>
+        <v>18.55798480585078</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.70602803270393</v>
+        <v>17.7000386286433</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.6179209414179</v>
+        <v>18.6735952471522</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.01056619985273</v>
+        <v>17.99501016799211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.12548710098886</v>
+        <v>18.16756017880274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.52907098819338</v>
+        <v>17.49954526256379</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.3567406645558</v>
+        <v>18.31778791311235</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.22920054349893</v>
+        <v>16.21783536490694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.36335090847765</v>
+        <v>16.34190325892867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.32826949976943</v>
+        <v>16.31546552720828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.54115882172593</v>
+        <v>16.53573003822096</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.22230232453258</v>
+        <v>17.25534252348733</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.42699215738831</v>
+        <v>17.43042059133415</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.39419910893235</v>
+        <v>17.42226591779563</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.32627701107278</v>
+        <v>17.3444641180052</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.64562776837832</v>
+        <v>16.64481596543309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16.82513934452829</v>
+        <v>16.82972223339091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.82354040557299</v>
+        <v>16.83288672064175</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.91389877703594</v>
+        <v>16.90837021112349</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.54254572415625</v>
+        <v>16.52953715336525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.66415438392182</v>
+        <v>16.66127763808858</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.67653128205006</v>
+        <v>16.68684365489461</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.88108879666708</v>
+        <v>16.88813633218527</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.81001806274439</v>
+        <v>17.77495109125583</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.97024097680015</v>
+        <v>18.00906065574717</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.94953146600531</v>
+        <v>17.97180964812343</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.75676551653171</v>
+        <v>17.74278474782466</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>16.9416177959158</v>
+        <v>16.93191998849738</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.12364811985571</v>
+        <v>17.13275604202082</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.11781807033771</v>
+        <v>17.13402024835112</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.1780047598292</v>
+        <v>17.17605891944458</v>
       </c>
     </row>
     <row r="16">
